--- a/acervo separado/Acervo_Peca_de_mobiliario.xlsx
+++ b/acervo separado/Acervo_Peca_de_mobiliario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67F307EC-4612-46C6-99B9-B47A102CCA7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2181E1-F62D-4653-BE62-7E7F197EE814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$23</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$23</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -110,9 +117,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Talha/madeira</t>
-  </si>
-  <si>
     <t>RT ARM1</t>
   </si>
   <si>
@@ -134,9 +138,6 @@
     <t>Porta jóias (miniatura de baú)</t>
   </si>
   <si>
-    <t>Madeira, metal e tecido</t>
-  </si>
-  <si>
     <t>5,2 x 7,0 x 4,8 cm</t>
   </si>
   <si>
@@ -146,9 +147,6 @@
     <t>Estante de livros</t>
   </si>
   <si>
-    <t>Madeira/vidro</t>
-  </si>
-  <si>
     <t>190,0 x 313,5 x 49,0 cm</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t>Baú</t>
   </si>
   <si>
-    <t>Couro Lavrado/madeira e metal</t>
-  </si>
-  <si>
     <t>41,6 x 118,0 x 47,3 cm</t>
   </si>
   <si>
@@ -179,27 +174,18 @@
     <t>Cadeira (estilo império)</t>
   </si>
   <si>
-    <t>Madeira, palhinha e bronze dourado</t>
-  </si>
-  <si>
     <t>87,0 x 61,5 x 61,5 cm</t>
   </si>
   <si>
     <t>1371 B</t>
   </si>
   <si>
-    <t>Madeira/palhinha</t>
-  </si>
-  <si>
     <t>2135</t>
   </si>
   <si>
     <t>Cadeira (giratória)</t>
   </si>
   <si>
-    <t>Madeira e apliques de bronze</t>
-  </si>
-  <si>
     <t>90,0 x 50,0 cm</t>
   </si>
   <si>
@@ -209,9 +195,6 @@
     <t>Cômoda (estilo império)</t>
   </si>
   <si>
-    <t>Madeira, mármore e metal dourado</t>
-  </si>
-  <si>
     <t>94,5 x 129,0 x 58,5 cm</t>
   </si>
   <si>
@@ -221,9 +204,6 @@
     <t>Mesa baiana (estilo luso-brasileiro)</t>
   </si>
   <si>
-    <t>Talha e torneado/madeira</t>
-  </si>
-  <si>
     <t>88,0 x 177,0 x 99,0 cm</t>
   </si>
   <si>
@@ -242,9 +222,6 @@
     <t>1375 A</t>
   </si>
   <si>
-    <t>Couro lavrado/madeira e metal</t>
-  </si>
-  <si>
     <t>S6 V3D</t>
   </si>
   <si>
@@ -254,9 +231,6 @@
     <t>Mobiliário (fragmento) - águia napoleônica</t>
   </si>
   <si>
-    <t>Bronze dourado/madeira</t>
-  </si>
-  <si>
     <t>10,7 x 9,0 cm</t>
   </si>
   <si>
@@ -278,9 +252,6 @@
     <t>Mobiliário (fragmento) - guirlanda</t>
   </si>
   <si>
-    <t>Madeira/bronze dourado</t>
-  </si>
-  <si>
     <t>12,5 x 28,4 cm</t>
   </si>
   <si>
@@ -290,9 +261,6 @@
     <t>Mobiliário (fragmento) - rosácea</t>
   </si>
   <si>
-    <t>Madeira/Bronze dourado</t>
-  </si>
-  <si>
     <t>22,0 x 21,8 cm</t>
   </si>
   <si>
@@ -326,15 +294,9 @@
     <t>Caixa com monograma JFN</t>
   </si>
   <si>
-    <t>Madeira/prata</t>
-  </si>
-  <si>
     <t>9,8 x 38,6 x 27,3 cm</t>
   </si>
   <si>
-    <t>Madeira/metal</t>
-  </si>
-  <si>
     <t>1442</t>
   </si>
   <si>
@@ -492,6 +454,45 @@
   </si>
   <si>
     <t>38,6cm</t>
+  </si>
+  <si>
+    <t>mattec_166</t>
+  </si>
+  <si>
+    <t>mattec_176</t>
+  </si>
+  <si>
+    <t>mattec_77</t>
+  </si>
+  <si>
+    <t>mattec_285</t>
+  </si>
+  <si>
+    <t>mattec_169</t>
+  </si>
+  <si>
+    <t>mattec_168</t>
+  </si>
+  <si>
+    <t>mattec_159</t>
+  </si>
+  <si>
+    <t>mattec_164</t>
+  </si>
+  <si>
+    <t>mattec_284</t>
+  </si>
+  <si>
+    <t>mattec_40</t>
+  </si>
+  <si>
+    <t>mattec_155</t>
+  </si>
+  <si>
+    <t>mattec_172</t>
+  </si>
+  <si>
+    <t>mattec_165</t>
   </si>
 </sst>
 </file>
@@ -876,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,16 +956,16 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="T1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="U1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -972,26 +973,26 @@
         <v>1364</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1011,13 +1012,13 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1025,22 +1026,22 @@
         <v>1378</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1061,13 +1062,13 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="S3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1075,22 +1076,22 @@
         <v>1374</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1111,13 +1112,13 @@
         <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="S4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1125,22 +1126,22 @@
         <v>1375</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1161,10 +1162,10 @@
         <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1172,25 +1173,25 @@
         <v>1371</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1211,13 +1212,13 @@
         <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="S6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1225,22 +1226,22 @@
         <v>1371</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1261,13 +1262,13 @@
         <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1275,22 +1276,22 @@
         <v>2135</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1311,10 +1312,10 @@
         <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1322,25 +1323,25 @@
         <v>1382</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1361,13 +1362,13 @@
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="T9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1375,22 +1376,22 @@
         <v>1409</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1411,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="S10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1425,22 +1426,22 @@
         <v>1443</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1449,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
@@ -1461,10 +1462,10 @@
         <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="S11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1472,22 +1473,22 @@
         <v>1374</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1508,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1519,22 +1520,22 @@
         <v>1375</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1555,13 +1556,13 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1569,25 +1570,25 @@
         <v>1546</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1596,7 +1597,7 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
@@ -1608,10 +1609,10 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S14" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1619,25 +1620,25 @@
         <v>1547</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1646,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -1658,10 +1659,10 @@
         <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1669,25 +1670,25 @@
         <v>1545</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1696,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
@@ -1708,10 +1709,10 @@
         <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1719,25 +1720,25 @@
         <v>1541</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1746,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
@@ -1758,10 +1759,10 @@
         <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1769,25 +1770,25 @@
         <v>1542</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -1796,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
@@ -1808,10 +1809,10 @@
         <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S18" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1819,25 +1820,25 @@
         <v>1543</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1846,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
@@ -1858,10 +1859,10 @@
         <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="S19" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1869,25 +1870,25 @@
         <v>1544</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1896,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
@@ -1908,10 +1909,10 @@
         <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1919,31 +1920,31 @@
         <v>1539</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
         <v>28</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
@@ -1955,10 +1956,10 @@
         <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1966,25 +1967,25 @@
         <v>1556</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1993,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
@@ -2005,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="S22" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="T22" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2019,25 +2020,25 @@
         <v>1442</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2046,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
         <v>22</v>
@@ -2058,10 +2059,10 @@
         <v>25</v>
       </c>
       <c r="S23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="U23" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
